--- a/assets/data/MSME Country Indicators - Iraq Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Iraq Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Iraq</t>
   </si>
@@ -56,6 +56,39 @@
   </si>
   <si>
     <t>Source: ILO, 2004</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>&lt;5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>10-29</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;=30</t>
   </si>
   <si>
     <t>ILO</t>
@@ -148,7 +181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -213,14 +246,81 @@
         <v>14</v>
       </c>
     </row>
+    <row r="17">
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
+      <c r="A20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>16</v>
+      <c r="A21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/MSME Country Indicators - Iraq Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Iraq Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Iraq</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>ILO</t>
-  </si>
-  <si>
-    <t>International Labour Organization (ILO), "Jobs for Iraq: An employment and decent work strategy", 2007, p. 54. Available at http://www.ilo.org/wcmsp5/groups/public/---arabstates/---ro-beirut/documents/publication/wcms_203801.pdf</t>
   </si>
 </sst>
 </file>
@@ -320,7 +317,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/MSME Country Indicators - Iraq Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Iraq Summary.xlsx
@@ -34,13 +34,13 @@
     <t>Employment (% of total)</t>
   </si>
   <si>
-    <t>78.4</t>
-  </si>
-  <si>
-    <t>20.2</t>
-  </si>
-  <si>
-    <t>98.6</t>
+    <t>78.35</t>
+  </si>
+  <si>
+    <t>20.24</t>
+  </si>
+  <si>
+    <t>98.59</t>
   </si>
   <si>
     <t>Employment (absolute #)</t>
